--- a/biology/Zoologie/Échiquier_d'Italie/Échiquier_d'Italie.xlsx
+++ b/biology/Zoologie/Échiquier_d'Italie/Échiquier_d'Italie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_d%27Italie</t>
+          <t>Échiquier_d'Italie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melanargia arge
 L’Échiquier d'Italie (Melanargia arge) est une espèce d'insectes lépidoptères (papillons) appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Melanargia.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_d%27Italie</t>
+          <t>Échiquier_d'Italie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Melanargia arge a été nommé par Johann Heinrich Sulzer en 1776.
 Synonyme : Papilio ines Hoffmannsegg, 1804;
-Noms vernaculaires
-L'Échiquier d'Italie se nomme Italian Marbled White en anglais[1].
-Espèce proche
-Le Demi-deuil (Melanargia lachesis), mais les dessins noirs au recto de l'Échiquier d'Italie sont plus réduits[2].
 </t>
         </is>
       </c>
@@ -530,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_d%27Italie</t>
+          <t>Échiquier_d'Italie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon de taille moyenne qui présente un damier noir et blanc mais avec des damiers noirs réduits les damiers noirs n'étant que le dessin des limites des damiers sauf dans les aires distales. Un ocelle marque l'apex des antérieures et une ligne d'ocelles les postérieures.
-Le revers dessine en noir les limites des damiers, et les ocelles y sont ocrés centré de bleuté.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Échiquier d'Italie se nomme Italian Marbled White en anglais.
 </t>
         </is>
       </c>
@@ -562,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_d%27Italie</t>
+          <t>Échiquier_d'Italie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,15 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en mai et juin en une seule génération[3].
-Plantes hôtes
-La chenille se nourrit de graminées.
+          <t>Espèce proche</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Demi-deuil (Melanargia lachesis), mais les dessins noirs au recto de l'Échiquier d'Italie sont plus réduits.
 </t>
         </is>
       </c>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_d%27Italie</t>
+          <t>Échiquier_d'Italie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,17 +629,197 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon de taille moyenne qui présente un damier noir et blanc mais avec des damiers noirs réduits les damiers noirs n'étant que le dessin des limites des damiers sauf dans les aires distales. Un ocelle marque l'apex des antérieures et une ligne d'ocelles les postérieures.
+Le revers dessine en noir les limites des damiers, et les ocelles y sont ocrés centré de bleuté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Échiquier_d'Italie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_d%27Italie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en mai et juin en une seule génération.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Échiquier_d'Italie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_d%27Italie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit de graminées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Échiquier_d'Italie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_d%27Italie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Échiquier d'Italie n'est présent qu'en Italie du centre de l'Italie à la Calabre et dans le nord-est de la Sicile[1].
-Biotope
-Il réside dans des lieux rocheux herbus.
-Protection
-L'Échiquier d'Italie est inscrit sur la liste des insectes strictement protégés de l'annexe 2 de la Convention de Berne[4].
-Il figure sur la liste européenne des espèces animales d'intérêt communautaire de la Directive Habitat, annexe II[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Échiquier d'Italie n'est présent qu'en Italie du centre de l'Italie à la Calabre et dans le nord-est de la Sicile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Échiquier_d'Italie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_d%27Italie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans des lieux rocheux herbus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Échiquier_d'Italie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_d%27Italie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Échiquier d'Italie est inscrit sur la liste des insectes strictement protégés de l'annexe 2 de la Convention de Berne.
+Il figure sur la liste européenne des espèces animales d'intérêt communautaire de la Directive Habitat, annexe II.
 </t>
         </is>
       </c>
